--- a/NformTester/NformTester/Keywordscripts/600.20.10.10_VerifyTheCountAndRemainingLicensesOfShutdownClientsWindow.xlsx
+++ b/NformTester/NformTester/Keywordscripts/600.20.10.10_VerifyTheCountAndRemainingLicensesOfShutdownClientsWindow.xlsx
@@ -1260,7 +1260,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="7692" uniqueCount="860">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="7694" uniqueCount="862">
   <si>
     <t>FormLogin_to_LiebertR_Nform</t>
   </si>
@@ -3870,6 +3870,14 @@
   <si>
     <t xml:space="preserve">;Verify the count on 'Remaining licenses' and 'Count' of 'Shutdown clients' </t>
     <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>Pre-condition</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>C:\\Automation-2014-11\\NformTestMain\\NformTester\\NformTester\\precondition_default.xml</t>
+    <phoneticPr fontId="5" type="noConversion"/>
   </si>
 </sst>
 </file>
@@ -4170,74 +4178,6 @@
     </dxf>
   </dxfs>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
-  <colors>
-    <indexedColors>
-      <rgbColor rgb="00000000"/>
-      <rgbColor rgb="00FFFFFF"/>
-      <rgbColor rgb="00FF0000"/>
-      <rgbColor rgb="0000FF00"/>
-      <rgbColor rgb="000000FF"/>
-      <rgbColor rgb="00FFFF00"/>
-      <rgbColor rgb="00FF00FF"/>
-      <rgbColor rgb="0000FFFF"/>
-      <rgbColor rgb="00000000"/>
-      <rgbColor rgb="00FFFFFF"/>
-      <rgbColor rgb="00FF0000"/>
-      <rgbColor rgb="0000FF00"/>
-      <rgbColor rgb="000000FF"/>
-      <rgbColor rgb="00FFFF00"/>
-      <rgbColor rgb="00FF00FF"/>
-      <rgbColor rgb="0000FFFF"/>
-      <rgbColor rgb="00800000"/>
-      <rgbColor rgb="00008000"/>
-      <rgbColor rgb="00000080"/>
-      <rgbColor rgb="00808000"/>
-      <rgbColor rgb="00800080"/>
-      <rgbColor rgb="00008080"/>
-      <rgbColor rgb="00C0C0C0"/>
-      <rgbColor rgb="00808080"/>
-      <rgbColor rgb="009999FF"/>
-      <rgbColor rgb="00993366"/>
-      <rgbColor rgb="00FFFFCC"/>
-      <rgbColor rgb="00CCFFFF"/>
-      <rgbColor rgb="00660066"/>
-      <rgbColor rgb="00FF8080"/>
-      <rgbColor rgb="000066CC"/>
-      <rgbColor rgb="00CCCCFF"/>
-      <rgbColor rgb="00000080"/>
-      <rgbColor rgb="00FF00FF"/>
-      <rgbColor rgb="00FFFF00"/>
-      <rgbColor rgb="0000FFFF"/>
-      <rgbColor rgb="00800080"/>
-      <rgbColor rgb="00800000"/>
-      <rgbColor rgb="00008080"/>
-      <rgbColor rgb="000000FF"/>
-      <rgbColor rgb="0000CCFF"/>
-      <rgbColor rgb="00CCFFFF"/>
-      <rgbColor rgb="00CCFFCC"/>
-      <rgbColor rgb="00FFFF99"/>
-      <rgbColor rgb="0099CCFF"/>
-      <rgbColor rgb="00FF99CC"/>
-      <rgbColor rgb="00CC99FF"/>
-      <rgbColor rgb="00FFCC99"/>
-      <rgbColor rgb="003366FF"/>
-      <rgbColor rgb="0033CCCC"/>
-      <rgbColor rgb="0099CC00"/>
-      <rgbColor rgb="00FFCC00"/>
-      <rgbColor rgb="00FF9900"/>
-      <rgbColor rgb="00FF6600"/>
-      <rgbColor rgb="00666699"/>
-      <rgbColor rgb="00969696"/>
-      <rgbColor rgb="00003366"/>
-      <rgbColor rgb="00339966"/>
-      <rgbColor rgb="00003300"/>
-      <rgbColor rgb="00333300"/>
-      <rgbColor rgb="00993300"/>
-      <rgbColor rgb="00993366"/>
-      <rgbColor rgb="00333399"/>
-      <rgbColor rgb="00333333"/>
-    </indexedColors>
-  </colors>
 </styleSheet>
 </file>
 
@@ -4249,7 +4189,7 @@
         <a:sysClr val="windowText" lastClr="000000"/>
       </a:dk1>
       <a:lt1>
-        <a:sysClr val="window" lastClr="C7EDCC"/>
+        <a:sysClr val="window" lastClr="FFFFFF"/>
       </a:lt1>
       <a:dk2>
         <a:srgbClr val="1F497D"/>
@@ -4528,8 +4468,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:O121"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="B1" workbookViewId="0">
-      <selection activeCell="B7" sqref="B7"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="A23" sqref="A23:B23"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5"/>
@@ -5212,8 +5152,12 @@
       <c r="O22" s="20"/>
     </row>
     <row r="23" spans="1:15">
-      <c r="A23" s="13"/>
-      <c r="B23" s="13"/>
+      <c r="A23" s="25" t="s">
+        <v>860</v>
+      </c>
+      <c r="B23" s="26" t="s">
+        <v>861</v>
+      </c>
       <c r="C23" s="3">
         <v>22</v>
       </c>
